--- a/file/tracking-jibang.xlsx
+++ b/file/tracking-jibang.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3024F199-84EA-4EDA-9828-7D0AB663362B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3797D957-0161-4A6E-9D67-612113692C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9EBCE60-27B1-4083-8D39-6BB6095E1657}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A9EBCE60-27B1-4083-8D39-6BB6095E1657}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>크로바</t>
   </si>
@@ -269,13 +258,46 @@
   <si>
     <t>단지명</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두호SK뷰푸르지오1단지</t>
+  </si>
+  <si>
+    <t>창포메트로시티2단지</t>
+  </si>
+  <si>
+    <t>우현삼도뷰엔빌W(16,19블럭)</t>
+  </si>
+  <si>
+    <t>삼구트리니엔시그니처</t>
+  </si>
+  <si>
+    <t>양학신원아침도시퀘렌시아</t>
+  </si>
+  <si>
+    <t>포항이동삼성</t>
+  </si>
+  <si>
+    <t>장성푸르지오</t>
+  </si>
+  <si>
+    <t>양덕4차삼구트리니엔</t>
+  </si>
+  <si>
+    <t>두산위브더제니스</t>
+  </si>
+  <si>
+    <t>한화포레나포항</t>
+  </si>
+  <si>
+    <t>양학산KCC스위첸</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,21 +313,54 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -314,15 +369,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -352,39 +419,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -436,7 +503,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -547,6 +614,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -555,13 +629,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -626,31 +693,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -659,10 +706,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936DD677-8B58-4B8E-9FA7-9F253B63BAAD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77:B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -679,607 +726,696 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>5986</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>5962</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>5997</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>5847</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5758</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5866</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>122931</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>103924</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>101355</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>111686</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>111290</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>108763</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>125317</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>103846</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>102411</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>117898</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>6136</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>103356</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>23725</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>100524</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>17466</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>109036</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>6070</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>6046</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>114293</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>107708</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>106692</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>112420</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>113572</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>106972</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>114461</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>122589</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>18756</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>103963</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>112607</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>108375</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>110558</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>126163</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>111567</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>112814</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>104250</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>108422</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>115525</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>109024</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>103671</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>109541</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>103591</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>101354</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>17291</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>113478</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>125767</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>108766</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>109377</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>25557</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>26134</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>108523</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>121913</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>117453</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>26322</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>103358</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>146718</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>111627</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>107332</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>104895</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>127006</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>103168</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>117345</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>19228</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>119614</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>25580</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>110159</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>113134</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>132124</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>109369</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A76" s="2">
+    <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
         <v>5055</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>117338</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>108575</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>104977</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>149718</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>137987</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>16387</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>117936</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>107745</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>102827</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>141064</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>107032</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/file/tracking-jibang.xlsx
+++ b/file/tracking-jibang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3797D957-0161-4A6E-9D67-612113692C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51F08B1-2B7E-483A-8122-C28CE13BD454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A9EBCE60-27B1-4083-8D39-6BB6095E1657}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9EBCE60-27B1-4083-8D39-6BB6095E1657}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>문지효성해링턴플레이스</t>
   </si>
   <si>
-    <t>엑스포4단지</t>
-  </si>
-  <si>
     <t>삼성푸른</t>
   </si>
   <si>
@@ -291,6 +288,10 @@
   </si>
   <si>
     <t>양학산KCC스위첸</t>
+  </si>
+  <si>
+    <t>엑스포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -708,8 +709,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77:B87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -719,10 +720,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
         <v>75</v>
-      </c>
-      <c r="B1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -903,10 +904,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>6070</v>
+        <v>184337</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
@@ -914,7 +915,7 @@
         <v>6046</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -922,7 +923,7 @@
         <v>114293</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -930,7 +931,7 @@
         <v>107708</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
@@ -938,7 +939,7 @@
         <v>106692</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
@@ -946,7 +947,7 @@
         <v>112420</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
@@ -954,7 +955,7 @@
         <v>113572</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
@@ -962,7 +963,7 @@
         <v>106972</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
@@ -970,7 +971,7 @@
         <v>114461</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
@@ -978,7 +979,7 @@
         <v>122589</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
@@ -986,7 +987,7 @@
         <v>18756</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
@@ -994,7 +995,7 @@
         <v>103963</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
@@ -1002,7 +1003,7 @@
         <v>112607</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
@@ -1010,7 +1011,7 @@
         <v>108375</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
@@ -1018,7 +1019,7 @@
         <v>110558</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
@@ -1026,7 +1027,7 @@
         <v>126163</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
@@ -1034,7 +1035,7 @@
         <v>111567</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
@@ -1042,7 +1043,7 @@
         <v>112814</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
@@ -1050,7 +1051,7 @@
         <v>104250</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
@@ -1058,7 +1059,7 @@
         <v>108422</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
@@ -1066,7 +1067,7 @@
         <v>115525</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
@@ -1074,7 +1075,7 @@
         <v>109024</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
@@ -1082,7 +1083,7 @@
         <v>103671</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
@@ -1090,7 +1091,7 @@
         <v>109541</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
@@ -1098,7 +1099,7 @@
         <v>103591</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
@@ -1106,7 +1107,7 @@
         <v>101354</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
@@ -1114,7 +1115,7 @@
         <v>17291</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
@@ -1122,7 +1123,7 @@
         <v>113478</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
@@ -1130,7 +1131,7 @@
         <v>125767</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
@@ -1138,7 +1139,7 @@
         <v>108766</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
@@ -1146,7 +1147,7 @@
         <v>109377</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
@@ -1154,7 +1155,7 @@
         <v>25557</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
@@ -1162,7 +1163,7 @@
         <v>26134</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
@@ -1170,7 +1171,7 @@
         <v>108523</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
@@ -1178,7 +1179,7 @@
         <v>121913</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
@@ -1186,7 +1187,7 @@
         <v>117453</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
@@ -1194,7 +1195,7 @@
         <v>26322</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
@@ -1202,7 +1203,7 @@
         <v>103358</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
@@ -1210,7 +1211,7 @@
         <v>146718</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
@@ -1218,7 +1219,7 @@
         <v>111627</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
@@ -1226,7 +1227,7 @@
         <v>107332</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
@@ -1234,7 +1235,7 @@
         <v>104895</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
@@ -1242,7 +1243,7 @@
         <v>127006</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
@@ -1250,7 +1251,7 @@
         <v>103168</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
@@ -1258,7 +1259,7 @@
         <v>117345</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
@@ -1266,7 +1267,7 @@
         <v>19228</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
@@ -1274,7 +1275,7 @@
         <v>119614</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
@@ -1282,7 +1283,7 @@
         <v>25580</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
@@ -1290,7 +1291,7 @@
         <v>110159</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
@@ -1298,7 +1299,7 @@
         <v>113134</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
@@ -1306,7 +1307,7 @@
         <v>132124</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
@@ -1314,7 +1315,7 @@
         <v>109369</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1322,7 +1323,7 @@
         <v>5055</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1330,7 +1331,7 @@
         <v>117338</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1338,7 +1339,7 @@
         <v>108575</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1346,7 +1347,7 @@
         <v>104977</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1354,7 +1355,7 @@
         <v>149718</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1362,7 +1363,7 @@
         <v>137987</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1370,7 +1371,7 @@
         <v>16387</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1378,7 +1379,7 @@
         <v>117936</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1386,7 +1387,7 @@
         <v>107745</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1394,7 +1395,7 @@
         <v>102827</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1402,7 +1403,7 @@
         <v>141064</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1410,7 +1411,7 @@
         <v>107032</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/file/tracking-jibang.xlsx
+++ b/file/tracking-jibang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51F08B1-2B7E-483A-8122-C28CE13BD454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4D0837-1610-4CCD-B7A7-C51DD48EF9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9EBCE60-27B1-4083-8D39-6BB6095E1657}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>크로바</t>
   </si>
@@ -292,6 +292,42 @@
   <si>
     <t>엑스포</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양정포레힐즈스위첸</t>
+  </si>
+  <si>
+    <t>양정자이더샵SK뷰</t>
+  </si>
+  <si>
+    <t>대원칸타빌멤버스</t>
+  </si>
+  <si>
+    <t>e편한세상시민공원1단지</t>
+  </si>
+  <si>
+    <t>서면아이파크1단지</t>
+  </si>
+  <si>
+    <t>포레나부산초읍</t>
+  </si>
+  <si>
+    <t>래미안어반파크</t>
+  </si>
+  <si>
+    <t>연지자이2차</t>
+  </si>
+  <si>
+    <t>롯데캐슬라센트</t>
+  </si>
+  <si>
+    <t>가야롯데캐슬골드아너</t>
+  </si>
+  <si>
+    <t>개금롯데캐슬</t>
+  </si>
+  <si>
+    <t>서면비스타동원</t>
   </si>
 </sst>
 </file>
@@ -370,7 +406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -390,6 +426,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -707,10 +752,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936DD677-8B58-4B8E-9FA7-9F253B63BAAD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1414,6 +1459,102 @@
         <v>86</v>
       </c>
     </row>
+    <row r="88" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
+        <v>131691</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="8">
+        <v>152746</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>13627</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>127321</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
+        <v>119101</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
+        <v>116166</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="8">
+        <v>126473</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>26210</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="8">
+        <v>134851</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>127003</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="7">
+        <v>100717</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="8">
+        <v>136397</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
